--- a/第一题/output_var/关税率预测结果.xlsx
+++ b/第一题/output_var/关税率预测结果.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.6066</v>
+        <v>39.9631</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.275986</v>
+        <v>-0.072546</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.7681</v>
+        <v>38.0967</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.274961</v>
+        <v>-0.047828</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.095</v>
+        <v>37.1041</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.209082</v>
+        <v>-0.026399</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.6685</v>
+        <v>37.2823</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.12869</v>
+        <v>0.004789</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.6625</v>
+        <v>37.7934</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.058624</v>
+        <v>0.013616</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.9299</v>
+        <v>37.996</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.044959</v>
+        <v>0.005347</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.6594</v>
+        <v>37.8459</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.083118</v>
+        <v>-0.003959</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.8585</v>
+        <v>37.6477</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.056182</v>
+        <v>-0.005249</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.4062</v>
+        <v>37.5857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.038757</v>
+        <v>-0.001649</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.9886</v>
+        <v>37.6244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.164887</v>
+        <v>0.001029</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.9627</v>
+        <v>37.6568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.210203</v>
+        <v>0.00086</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.1082</v>
+        <v>37.6381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.139804</v>
+        <v>-0.000496</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.6569</v>
+        <v>37.5933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.022506</v>
+        <v>-0.001191</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.0298</v>
+        <v>37.5576</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.068269</v>
+        <v>-0.00095</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.981</v>
+        <v>37.5394</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.093172</v>
+        <v>-0.000485</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.6881</v>
+        <v>37.5269</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.063601</v>
+        <v>-0.000333</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.0674</v>
+        <v>37.5094</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.032035</v>
+        <v>-0.000465</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.1573</v>
+        <v>37.4865</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.048909</v>
+        <v>-0.000612</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.7014</v>
+        <v>37.4627</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.08358</v>
+        <v>-0.000634</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.3322</v>
+        <v>37.4411</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.08554100000000001</v>
+        <v>-0.000577</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.9712</v>
+        <v>37.4211</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.023825</v>
+        <v>-0.000535</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.0263</v>
+        <v>37.401</v>
       </c>
       <c r="C23" t="n">
-        <v>0.068103</v>
+        <v>-0.000537</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.0995</v>
+        <v>37.3801</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121653</v>
+        <v>-0.000558</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.0911</v>
+        <v>37.3589</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104394</v>
+        <v>-0.000569</v>
       </c>
     </row>
   </sheetData>
